--- a/フィッティング考察.xlsx
+++ b/フィッティング考察.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daiichi13\Documents\GitHub\Python_traning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nagos04\部門共有\加藤有真研修191202～\to本社\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="考察" sheetId="1" r:id="rId1"/>
+    <sheet name="データ集" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>三次関数フィッティング</t>
     <rPh sb="0" eb="2">
@@ -36,37 +37,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最近傍距離の総和に対して最小を探索する演算を行っているので</t>
-    <rPh sb="0" eb="1">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キンボウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウワ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タンサク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>エンザン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関数の動作として正しい気がする</t>
     <rPh sb="0" eb="2">
       <t>カンスウ</t>
@@ -112,83 +82,328 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結論：3次関数では表現するのに不十分として</t>
+    <t>最近傍距離の2乗の総和に対して最小を探索する演算を行っているので</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キンボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間ごとのサンプリングである温度データに対して</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形予測によって、毎時以外の（データ間の）温度変化を復元するのが目標</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>マイジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フクゲン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12次関数</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11次関数</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10次関数</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8次関数</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7次関数</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>究極的には、どの様な波形でもマクローリン展開によって表現できてしまうことから、</t>
+    <rPh sb="0" eb="3">
+      <t>キュウキョクテキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、温度計そのもの値から、その日の気温変化を波形として取得することを目的とするため</t>
+    <rPh sb="5" eb="8">
+      <t>オンドケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハケイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データから9次関数による表現が妥当であるという判断をしている。</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダトウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日の出などの大きな要因による気温変化が追える程度の関数によるフィッティングを目標とする。（細かい変化は無視したい）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結論：サンプルデータについて7-12次までの関数でフィッティングを行い比較した結果</t>
     <rPh sb="0" eb="2">
       <t>ケツロン</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="18" eb="19">
       <t>ジ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウゲン</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>フジュウブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高次元になるほど、今度は生データに引っ張られる現象が発生してしまうため、対応を相談したい状態。</t>
-    <rPh sb="0" eb="3">
-      <t>コウジゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コンド</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>パ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゲンショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>タイオウ</t>
+    <rPh sb="22" eb="24">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒカク</t>
     </rPh>
     <rPh sb="39" eb="41">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アナログ波形の標本化あたりのキーワードで検索して、十分である指標を検索してみましたが、うまく見つけられていない状態です。</t>
-    <rPh sb="4" eb="6">
-      <t>ハケイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ヒョウホンカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シヒョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ジョウタイ</t>
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんかいのデータでは9次関数あたりが大きな変化を捕まえかつ微細な変化につかまらないため</t>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ビサイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9次関数を用いて作成を進める。</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高次の関数にすれば100%のフィッティングを行うことが可能である。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -263,13 +478,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>684428</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>104169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -301,13 +516,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>332048</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>132776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -339,13 +554,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>360619</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>8967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -365,6 +580,277 @@
         <a:xfrm>
           <a:off x="685800" y="11144250"/>
           <a:ext cx="10647619" cy="4466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417762</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>132776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="10704762" cy="4590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417762</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="10704762" cy="4590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>484428</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>8945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5829300"/>
+          <a:ext cx="10771428" cy="4638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>465381</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11153775"/>
+          <a:ext cx="10752381" cy="4609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>379667</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>161369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="26574750"/>
+          <a:ext cx="10666667" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360619</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>8967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16459200"/>
+          <a:ext cx="10647619" cy="4466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332048</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>132776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="26746200"/>
+          <a:ext cx="10619048" cy="4590476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,52 +1125,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B97"/>
+  <dimension ref="B1:B141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
-        <v>4</v>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B32:B184"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A32" sqref="A3:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
